--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMon.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_VDMon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D523C-C8CD-460E-80EA-9A6E284A575E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD83EBF-B581-405C-B768-1A3FF449B82E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -238,12 +238,6 @@
     <t>EGR rate gradient calculated over current position</t>
   </si>
   <si>
-    <t>EGRVlv_swtGovByp_C</t>
-  </si>
-  <si>
-    <t>Switch for bypassing the position controller</t>
-  </si>
-  <si>
     <t>EGRVlv_rDvtMax_C</t>
   </si>
   <si>
@@ -409,19 +403,10 @@
     <t>EGR position gradient to undetect deviation fault</t>
   </si>
   <si>
-    <t>EGRVlv_facdrActFlt_C</t>
-  </si>
-  <si>
-    <t>Factor of the PT1 filter</t>
-  </si>
-  <si>
     <t>DutyCycle</t>
   </si>
   <si>
     <t>Debncd_ms</t>
-  </si>
-  <si>
-    <t>Fac_100</t>
   </si>
   <si>
     <t>Temp_C</t>
@@ -853,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -931,7 +916,7 @@
         <v>3000</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -940,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
@@ -986,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>22</v>
@@ -1009,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>24</v>
@@ -1035,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>26</v>
@@ -1061,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>28</v>
@@ -1075,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>30</v>
@@ -1180,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>34</v>
@@ -1203,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>36</v>
@@ -1326,7 +1311,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5">
         <v>-100</v>
@@ -1344,7 +1329,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>48</v>
@@ -1468,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>53</v>
@@ -1491,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>55</v>
@@ -1583,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>63</v>
@@ -1609,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>65</v>
@@ -1623,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1666,30 +1651,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
+      <c r="E2" s="6">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -1703,13 +1691,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>69</v>
@@ -1720,30 +1708,30 @@
         <v>70</v>
       </c>
       <c r="B4" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>100</v>
+        <v>6553.5</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
-        <v>5</v>
+      <c r="E4" s="5">
+        <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1754,22 +1742,22 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1784,13 +1772,13 @@
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1806,48 +1794,48 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6553.5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1862,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>81</v>
@@ -1876,22 +1864,22 @@
         <v>82</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C10" s="5">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
+      <c r="E10" s="6">
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>83</v>
@@ -1911,13 +1899,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>85</v>
@@ -1936,14 +1924,14 @@
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6">
-        <v>10</v>
+      <c r="E12" s="5">
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>87</v>
@@ -1954,48 +1942,48 @@
         <v>88</v>
       </c>
       <c r="B13" s="5">
-        <v>-100</v>
+        <v>-128</v>
       </c>
       <c r="C13" s="5">
-        <v>100</v>
+        <v>127.9</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5">
-        <v>-128</v>
+        <v>-100</v>
       </c>
       <c r="C14" s="5">
-        <v>127.9</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>92</v>
@@ -2006,22 +1994,19 @@
         <v>93</v>
       </c>
       <c r="B15" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
+      <c r="E15" s="6">
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>94</v>
@@ -2032,19 +2017,22 @@
         <v>95</v>
       </c>
       <c r="B16" s="5">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="C16" s="5">
-        <v>255</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>96</v>
@@ -2063,14 +2051,14 @@
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6">
-        <v>150</v>
+      <c r="E17" s="5">
+        <v>200</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>98</v>
@@ -2081,22 +2069,19 @@
         <v>99</v>
       </c>
       <c r="B18" s="5">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5">
-        <v>3000</v>
+        <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5">
-        <v>200</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
@@ -2107,19 +2092,22 @@
         <v>101</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C19" s="5">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>102</v>
@@ -2138,14 +2126,14 @@
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>104</v>
@@ -2171,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>106</v>
@@ -2190,14 +2178,14 @@
       <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="6">
-        <v>5</v>
+      <c r="E22" s="5">
+        <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>108</v>
@@ -2216,14 +2204,14 @@
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5">
-        <v>3</v>
+      <c r="E23" s="6">
+        <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>110</v>
@@ -2234,22 +2222,22 @@
         <v>111</v>
       </c>
       <c r="B24" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>112</v>
@@ -2260,22 +2248,22 @@
         <v>113</v>
       </c>
       <c r="B25" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C25" s="5">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
+      <c r="E25" s="5">
+        <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>114</v>
@@ -2286,7 +2274,7 @@
         <v>115</v>
       </c>
       <c r="B26" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
         <v>100</v>
@@ -2295,13 +2283,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="5">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>116</v>
@@ -2312,7 +2297,7 @@
         <v>117</v>
       </c>
       <c r="B27" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C27" s="5">
         <v>100</v>
@@ -2323,8 +2308,11 @@
       <c r="E27" s="5">
         <v>2</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>118</v>
@@ -2343,85 +2331,36 @@
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="5">
-        <v>2</v>
+      <c r="E28" s="6">
+        <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C29" s="5">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>99.998500000000007</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6">
-        <v>50</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="6"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="6"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="6"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMon.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_VDMon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD83EBF-B581-405C-B768-1A3FF449B82E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FEAC49-D0FE-43CB-B6CE-B0D35675406F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -448,6 +448,25 @@
   </si>
   <si>
     <t>EGRVlv_drRawFlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_EGRVlV_MonEn_FG_CA</t>
+  </si>
+  <si>
+    <t>[1 15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros(1,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1630,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -1737,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -1763,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -1789,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -2342,6 +2361,29 @@
       </c>
       <c r="H28" s="4" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
